--- a/data/trans_orig/P14B23-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>42004</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29582</v>
+        <v>28570</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58735</v>
+        <v>56505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04023594059665494</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02833732963585879</v>
+        <v>0.02736772357265421</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05626355726306505</v>
+        <v>0.05412662220837969</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>145</v>
@@ -764,19 +764,19 @@
         <v>154709</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>132071</v>
+        <v>131631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>178939</v>
+        <v>177378</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1389210485322021</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1185926513033395</v>
+        <v>0.1181980751676127</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1606777823038935</v>
+        <v>0.1592761478497947</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -785,19 +785,19 @@
         <v>196713</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168981</v>
+        <v>172470</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>224041</v>
+        <v>224769</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09117283548056174</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07831954820617866</v>
+        <v>0.07993665765929917</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1038389623130669</v>
+        <v>0.1041762427091275</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>1001931</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>985200</v>
+        <v>987430</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1014353</v>
+        <v>1015365</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9597640594033451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.943736442736935</v>
+        <v>0.9458733777916204</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9716626703641414</v>
+        <v>0.9726322764273458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>881</v>
@@ -835,19 +835,19 @@
         <v>958941</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>934711</v>
+        <v>936272</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>981579</v>
+        <v>982019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8610789514677979</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8393222176961063</v>
+        <v>0.8407238521502053</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8814073486966605</v>
+        <v>0.8818019248323875</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1822</v>
@@ -856,19 +856,19 @@
         <v>1960872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1933544</v>
+        <v>1932816</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1988604</v>
+        <v>1985115</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9088271645194382</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8961610376869333</v>
+        <v>0.8958237572908726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9216804517938214</v>
+        <v>0.9200633423407009</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>20725</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12559</v>
+        <v>12938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31524</v>
+        <v>31221</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02123562221428044</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01286865026960267</v>
+        <v>0.01325624098172139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03230013519222174</v>
+        <v>0.03198953274644001</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -981,19 +981,19 @@
         <v>63744</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49244</v>
+        <v>49051</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79603</v>
+        <v>80058</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05846514715710324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04516658854107872</v>
+        <v>0.04498917860621524</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07301138211909437</v>
+        <v>0.07342818516898872</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -1002,19 +1002,19 @@
         <v>84469</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66988</v>
+        <v>67852</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103172</v>
+        <v>103640</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04088020218171391</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03241970594691239</v>
+        <v>0.03283802568466237</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.049931755473214</v>
+        <v>0.05015821451834052</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>955249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>944450</v>
+        <v>944753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>963415</v>
+        <v>963036</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9787643777857196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9676998648077786</v>
+        <v>0.96801046725356</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9871313497303974</v>
+        <v>0.9867437590182787</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>956</v>
@@ -1052,19 +1052,19 @@
         <v>1026541</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1010682</v>
+        <v>1010227</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1041041</v>
+        <v>1041234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9415348528428967</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9269886178809058</v>
+        <v>0.9265718148310114</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9548334114589214</v>
+        <v>0.9550108213937848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1859</v>
@@ -1073,19 +1073,19 @@
         <v>1981791</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1963088</v>
+        <v>1962620</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1999272</v>
+        <v>1998408</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.959119797818286</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.950068244526786</v>
+        <v>0.949841785481659</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9675802940530877</v>
+        <v>0.9671619743153376</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>18162</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10928</v>
+        <v>10326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29807</v>
+        <v>30408</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02051890139222666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01234670719794186</v>
+        <v>0.01166660586167789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03367534267586716</v>
+        <v>0.03435518673059085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -1198,19 +1198,19 @@
         <v>45681</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33759</v>
+        <v>33946</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60206</v>
+        <v>61698</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05222451424897983</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03859481211674706</v>
+        <v>0.03880859630451149</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06883051530685536</v>
+        <v>0.07053625193686042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1219,19 +1219,19 @@
         <v>63843</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49648</v>
+        <v>48746</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83012</v>
+        <v>82383</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03627792918434204</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02821210200857137</v>
+        <v>0.02769931632445857</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04717074827281293</v>
+        <v>0.04681316876141797</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>866953</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>855308</v>
+        <v>854707</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>874187</v>
+        <v>874789</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9794810986077733</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9663246573241329</v>
+        <v>0.9656448132694091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9876532928020582</v>
+        <v>0.9883333941383221</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>778</v>
@@ -1269,19 +1269,19 @@
         <v>829024</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>814499</v>
+        <v>813007</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>840946</v>
+        <v>840759</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9477754857510202</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9311694846931446</v>
+        <v>0.9294637480631405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9614051878832529</v>
+        <v>0.9611914036954887</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1592</v>
@@ -1290,19 +1290,19 @@
         <v>1695977</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1676808</v>
+        <v>1677437</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1710172</v>
+        <v>1711074</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.963722070815658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.952829251727187</v>
+        <v>0.9531868312385822</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9717878979914286</v>
+        <v>0.9723006836755415</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>4267</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1150</v>
+        <v>1014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11547</v>
+        <v>10180</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008500675205433909</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002291264911678597</v>
+        <v>0.002019701391708688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02300426218106332</v>
+        <v>0.02027998828140843</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1415,19 +1415,19 @@
         <v>17774</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10609</v>
+        <v>10390</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28009</v>
+        <v>27475</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03925895252569436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02343310828847338</v>
+        <v>0.02295039691602523</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06186627095801279</v>
+        <v>0.06068759219612676</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1436,19 +1436,19 @@
         <v>22041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13594</v>
+        <v>13733</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32317</v>
+        <v>31956</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02308667626215935</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01423936809794482</v>
+        <v>0.01438466812711064</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03385068413253665</v>
+        <v>0.0334720836393051</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>497705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>490425</v>
+        <v>491792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>500822</v>
+        <v>500958</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.991499324794566</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9769957378189368</v>
+        <v>0.9797200117185915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9977087350883215</v>
+        <v>0.9979802986082913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>395</v>
@@ -1486,19 +1486,19 @@
         <v>434962</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>424727</v>
+        <v>425261</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>442127</v>
+        <v>442346</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9607410474743057</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9381337290419871</v>
+        <v>0.939312407803873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9765668917115264</v>
+        <v>0.9770496030839747</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>851</v>
@@ -1507,19 +1507,19 @@
         <v>932666</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>922390</v>
+        <v>922751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>941113</v>
+        <v>940974</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9769133237378407</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9661493158674633</v>
+        <v>0.9665279163606949</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9857606319020552</v>
+        <v>0.9856153318728894</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>85158</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67463</v>
+        <v>65765</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106640</v>
+        <v>105427</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02499498211279776</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01980142844809937</v>
+        <v>0.01930287646998169</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03130017603712672</v>
+        <v>0.03094437040615985</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>265</v>
@@ -1632,19 +1632,19 @@
         <v>281908</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>249611</v>
+        <v>250470</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>312703</v>
+        <v>317597</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07982953305864271</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07068386912677475</v>
+        <v>0.07092708791231801</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08854987105020228</v>
+        <v>0.08993579793014977</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>342</v>
@@ -1653,19 +1653,19 @@
         <v>367066</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>332076</v>
+        <v>329113</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>408168</v>
+        <v>402652</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05290374765143165</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04786075108325884</v>
+        <v>0.04743378272365169</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05882767715614751</v>
+        <v>0.05803265941004265</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3321838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3300356</v>
+        <v>3301569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3339533</v>
+        <v>3341231</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9750050178872023</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9686998239628732</v>
+        <v>0.9690556295938402</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9801985715519004</v>
+        <v>0.9806971235300184</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3010</v>
@@ -1703,19 +1703,19 @@
         <v>3249468</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3218673</v>
+        <v>3213779</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3281765</v>
+        <v>3280906</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9201704669413573</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9114501289497978</v>
+        <v>0.9100642020698499</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9293161308732253</v>
+        <v>0.9290729120876817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6124</v>
@@ -1724,19 +1724,19 @@
         <v>6571306</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6530204</v>
+        <v>6535720</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6606296</v>
+        <v>6609259</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9470962523485683</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9411723228438525</v>
+        <v>0.9419673405899571</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9521392489167411</v>
+        <v>0.9525662172763482</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>41118</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29554</v>
+        <v>29659</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54787</v>
+        <v>55047</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03645216943640957</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0262006282549745</v>
+        <v>0.02629343837232113</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04857001920223949</v>
+        <v>0.04880038120625184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -2089,19 +2089,19 @@
         <v>138886</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>116471</v>
+        <v>116601</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162577</v>
+        <v>163037</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1102654915920996</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09246948082672461</v>
+        <v>0.09257262942167367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1290745500333948</v>
+        <v>0.1294391804218899</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>164</v>
@@ -2110,19 +2110,19 @@
         <v>180004</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>154841</v>
+        <v>154678</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>207031</v>
+        <v>209591</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07539252811327697</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0648531365247481</v>
+        <v>0.06478506926114416</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08671259723013892</v>
+        <v>0.08778483005805023</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1086879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1073210</v>
+        <v>1072950</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1098443</v>
+        <v>1098338</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9635478305635904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9514299807977604</v>
+        <v>0.9511996187937486</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9737993717450255</v>
+        <v>0.9737065616276791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1064</v>
@@ -2160,19 +2160,19 @@
         <v>1120675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1096984</v>
+        <v>1096524</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1143090</v>
+        <v>1142960</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8897345084079004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8709254499666055</v>
+        <v>0.8705608195781102</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9075305191732754</v>
+        <v>0.9074273705783263</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2090</v>
@@ -2181,19 +2181,19 @@
         <v>2207554</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2180527</v>
+        <v>2177967</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2232717</v>
+        <v>2232880</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.924607471886723</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9132874027698611</v>
+        <v>0.9122151699419498</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.935146863475252</v>
+        <v>0.935214930738856</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>13837</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7993</v>
+        <v>7650</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22640</v>
+        <v>22118</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01522512839797903</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008794420974240214</v>
+        <v>0.008417143407219262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02491078796907447</v>
+        <v>0.02433646921158076</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -2306,19 +2306,19 @@
         <v>49367</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36955</v>
+        <v>37675</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64311</v>
+        <v>65246</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04904952867676657</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03671753426065334</v>
+        <v>0.03743227454661814</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06389704472500114</v>
+        <v>0.06482605018587598</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -2327,19 +2327,19 @@
         <v>63204</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48936</v>
+        <v>49502</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79595</v>
+        <v>79906</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03299958773168935</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02555019818754828</v>
+        <v>0.02584578368937328</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04155768304803005</v>
+        <v>0.04171998677081848</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>894988</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>886185</v>
+        <v>886707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>900832</v>
+        <v>901175</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9847748716020209</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9750892120309256</v>
+        <v>0.9756635307884194</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9912055790257598</v>
+        <v>0.9915828565927808</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>904</v>
@@ -2377,19 +2377,19 @@
         <v>957108</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>942164</v>
+        <v>941229</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>969520</v>
+        <v>968800</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9509504713232334</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9361029552749991</v>
+        <v>0.9351739498141243</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9632824657393469</v>
+        <v>0.9625677254533821</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1771</v>
@@ -2398,19 +2398,19 @@
         <v>1852096</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1835705</v>
+        <v>1835394</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1866364</v>
+        <v>1865798</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9670004122683107</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9584423169519697</v>
+        <v>0.9582800132291815</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9744498018124517</v>
+        <v>0.9741542163106266</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>8852</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4202</v>
+        <v>4036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16248</v>
+        <v>16535</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01074632028534647</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005100745605289763</v>
+        <v>0.004899990508935653</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01972393793682325</v>
+        <v>0.02007295164325132</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -2523,19 +2523,19 @@
         <v>30585</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20216</v>
+        <v>20201</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43558</v>
+        <v>43428</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03966638111961325</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02621858015516305</v>
+        <v>0.02619841004498319</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05649083536781752</v>
+        <v>0.05632236131854042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -2544,19 +2544,19 @@
         <v>39437</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27674</v>
+        <v>27558</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54102</v>
+        <v>53015</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02472852048184708</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01735228254706924</v>
+        <v>0.01727993368840863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03392366696066464</v>
+        <v>0.03324219022034319</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>814907</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>807511</v>
+        <v>807224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>819557</v>
+        <v>819723</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9892536797146535</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9802760620631764</v>
+        <v>0.9799270483567488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9948992543947102</v>
+        <v>0.9951000094910644</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>701</v>
@@ -2594,19 +2594,19 @@
         <v>740474</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>727501</v>
+        <v>727631</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>750843</v>
+        <v>750858</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9603336188803867</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9435091646321825</v>
+        <v>0.9436776386814589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9737814198448369</v>
+        <v>0.9738015899550168</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1479</v>
@@ -2615,19 +2615,19 @@
         <v>1555381</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1540716</v>
+        <v>1541803</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1567144</v>
+        <v>1567260</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.975271479518153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9660763330393354</v>
+        <v>0.9667578097796569</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9826477174529308</v>
+        <v>0.9827200663115914</v>
       </c>
     </row>
     <row r="12">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7866</v>
+        <v>7322</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004072661571091699</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01552304772660628</v>
+        <v>0.01445085838414358</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -2740,19 +2740,19 @@
         <v>15397</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8641</v>
+        <v>9255</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25467</v>
+        <v>25897</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03144093179632974</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01764500669018977</v>
+        <v>0.01889877991099638</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05200627035727011</v>
+        <v>0.05288308273723198</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -2761,19 +2761,19 @@
         <v>17460</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10472</v>
+        <v>10275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27698</v>
+        <v>28177</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01752327953016488</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01050941349011003</v>
+        <v>0.01031249583466725</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02779771626038965</v>
+        <v>0.02827921743295768</v>
       </c>
     </row>
     <row r="14">
@@ -2790,7 +2790,7 @@
         <v>504637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498835</v>
+        <v>499379</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>506701</v>
@@ -2799,7 +2799,7 @@
         <v>0.9959273384289083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9844769522733939</v>
+        <v>0.9855491416158565</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2811,19 +2811,19 @@
         <v>474301</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>464231</v>
+        <v>463801</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>481057</v>
+        <v>480443</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9685590682036702</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9479937296427297</v>
+        <v>0.9471169172627679</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.98235499330981</v>
+        <v>0.9811012200890035</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>910</v>
@@ -2832,19 +2832,19 @@
         <v>978938</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>968700</v>
+        <v>968221</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>985926</v>
+        <v>986123</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9824767204698351</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9722022837396102</v>
+        <v>0.9717207825670425</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9894905865098897</v>
+        <v>0.9896875041653328</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>65871</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51967</v>
+        <v>50022</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83182</v>
+        <v>82142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01956204368086975</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01543279550105287</v>
+        <v>0.01485541993167354</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02470293067074606</v>
+        <v>0.02439403451366984</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>212</v>
@@ -2957,19 +2957,19 @@
         <v>234235</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>205731</v>
+        <v>203787</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>267525</v>
+        <v>266324</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06641584128454016</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0583336708813221</v>
+        <v>0.05778239844684078</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07585499132888343</v>
+        <v>0.07551458317205602</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>277</v>
@@ -2978,19 +2978,19 @@
         <v>300106</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>269090</v>
+        <v>264243</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>336434</v>
+        <v>331828</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04353097709891145</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03903200891004621</v>
+        <v>0.03832897954751042</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04880043720935378</v>
+        <v>0.04813235327462726</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3301411</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3284100</v>
+        <v>3285140</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3315315</v>
+        <v>3317260</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9804379563191302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.975297069329254</v>
+        <v>0.9756059654863302</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9845672044989471</v>
+        <v>0.9851445800683265</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3110</v>
@@ -3028,19 +3028,19 @@
         <v>3292557</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3259267</v>
+        <v>3260468</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3321061</v>
+        <v>3323005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9335841587154599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9241450086711166</v>
+        <v>0.9244854168279441</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9416663291186781</v>
+        <v>0.9422176015531594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6250</v>
@@ -3049,19 +3049,19 @@
         <v>6593969</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6557641</v>
+        <v>6562247</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6624985</v>
+        <v>6629832</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9564690229010886</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9511995627906462</v>
+        <v>0.9518676467253727</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9609679910899536</v>
+        <v>0.9616710204524894</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>50214</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37780</v>
+        <v>36898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65449</v>
+        <v>65372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1006819328265157</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0757517936814448</v>
+        <v>0.07398331356397857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1312290162463267</v>
+        <v>0.1310753066178467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -3414,19 +3414,19 @@
         <v>91964</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77324</v>
+        <v>78291</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>108263</v>
+        <v>106907</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1474767207936238</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1240006863068021</v>
+        <v>0.125550090518763</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1736154781828084</v>
+        <v>0.1714411721182742</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -3435,19 +3435,19 @@
         <v>142178</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>123482</v>
+        <v>122646</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>162935</v>
+        <v>163033</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1266819298248467</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1100234373358002</v>
+        <v>0.1092792737575419</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1451765298921038</v>
+        <v>0.1452640936365606</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>448525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>433290</v>
+        <v>433367</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>460959</v>
+        <v>461841</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8993180671734845</v>
+        <v>0.8993180671734843</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8687709837536735</v>
+        <v>0.8689246933821531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9242482063185551</v>
+        <v>0.9260166864360213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>723</v>
@@ -3485,19 +3485,19 @@
         <v>531616</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>515317</v>
+        <v>516673</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>546256</v>
+        <v>545289</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8525232792063761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8263845218171916</v>
+        <v>0.8285588278817255</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8759993136931979</v>
+        <v>0.8744499094812369</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1127</v>
@@ -3506,19 +3506,19 @@
         <v>980142</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>959385</v>
+        <v>959287</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>998838</v>
+        <v>999674</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8733180701751534</v>
+        <v>0.8733180701751533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8548234701078967</v>
+        <v>0.8547359063634394</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8899765626642002</v>
+        <v>0.8907207262424586</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>28237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19797</v>
+        <v>18904</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40115</v>
+        <v>40038</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02940953645816265</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02061911566591105</v>
+        <v>0.0196892527394292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.041780784748018</v>
+        <v>0.04169982447766538</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>139</v>
@@ -3631,19 +3631,19 @@
         <v>89727</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76512</v>
+        <v>75368</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108336</v>
+        <v>106247</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08041098616515639</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06856874473366646</v>
+        <v>0.06754279693510282</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09708814062076139</v>
+        <v>0.09521667064406342</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -3652,19 +3652,19 @@
         <v>117964</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100858</v>
+        <v>100634</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138484</v>
+        <v>137702</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05682298377275318</v>
+        <v>0.05682298377275317</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04858340212925437</v>
+        <v>0.04847518629220228</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06670744230019869</v>
+        <v>0.06633098632724986</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>931900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>920022</v>
+        <v>920099</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>940340</v>
+        <v>941233</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9705904635418374</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9582192152519818</v>
+        <v>0.9583001755223346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.979380884334089</v>
+        <v>0.9803107472605707</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1468</v>
@@ -3702,19 +3702,19 @@
         <v>1026122</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1007513</v>
+        <v>1009602</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1039337</v>
+        <v>1040481</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9195890138348436</v>
+        <v>0.9195890138348434</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9029118593792388</v>
+        <v>0.9047833293559369</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9314312552663336</v>
+        <v>0.9324572030648974</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2346</v>
@@ -3723,19 +3723,19 @@
         <v>1958022</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1937502</v>
+        <v>1938284</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1975128</v>
+        <v>1975352</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9431770162272469</v>
+        <v>0.9431770162272467</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9332925576998014</v>
+        <v>0.9336690136727502</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9514165978707456</v>
+        <v>0.9515248137077978</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>21941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14465</v>
+        <v>14358</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32926</v>
+        <v>32864</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02096620548745512</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01382269658928289</v>
+        <v>0.01372058086538356</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03146349401967485</v>
+        <v>0.03140481187954228</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -3848,19 +3848,19 @@
         <v>68667</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54910</v>
+        <v>54502</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83462</v>
+        <v>83068</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06554395825405887</v>
+        <v>0.06554395825405888</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05241265034311317</v>
+        <v>0.05202352170204622</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07966689916268137</v>
+        <v>0.07929054087376186</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>125</v>
@@ -3869,19 +3869,19 @@
         <v>90607</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75208</v>
+        <v>74569</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107584</v>
+        <v>108492</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04326745347615118</v>
+        <v>0.04326745347615119</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03591395303830974</v>
+        <v>0.03560850331594605</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05137428846586582</v>
+        <v>0.05180803698187116</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>1024538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1013553</v>
+        <v>1013615</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1032014</v>
+        <v>1032121</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9790337945125448</v>
+        <v>0.9790337945125449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9685365059803255</v>
+        <v>0.968595188120458</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9861773034107173</v>
+        <v>0.9862794191346166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1415</v>
@@ -3919,19 +3919,19 @@
         <v>978975</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>964180</v>
+        <v>964574</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>992732</v>
+        <v>993140</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9344560417459412</v>
+        <v>0.9344560417459411</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9203331008373188</v>
+        <v>0.920709459126238</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9475873496568868</v>
+        <v>0.9479764782979538</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2420</v>
@@ -3940,19 +3940,19 @@
         <v>2003514</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1986537</v>
+        <v>1985629</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2018913</v>
+        <v>2019552</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9567325465238488</v>
+        <v>0.9567325465238489</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9486257115341342</v>
+        <v>0.9481919630181289</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9640860469616903</v>
+        <v>0.964391496684054</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>27388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17594</v>
+        <v>18577</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42751</v>
+        <v>42265</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02806343774989377</v>
+        <v>0.02806343774989376</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01802838257648415</v>
+        <v>0.01903497771952416</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04380515486965955</v>
+        <v>0.04330705847777256</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -4065,19 +4065,19 @@
         <v>45862</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36689</v>
+        <v>36358</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59483</v>
+        <v>58133</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05037846163538599</v>
+        <v>0.050378461635386</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04030185733817396</v>
+        <v>0.03993876051937247</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06534152135400643</v>
+        <v>0.06385808537726879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -4086,19 +4086,19 @@
         <v>73250</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59517</v>
+        <v>58841</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93512</v>
+        <v>90835</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03883301217679744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03155269740386367</v>
+        <v>0.03119441796310396</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04957506991635489</v>
+        <v>0.04815575422461694</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>948541</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>933178</v>
+        <v>933664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>958335</v>
+        <v>957352</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9719365622501063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9561948451303404</v>
+        <v>0.9566929415222274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9819716174235159</v>
+        <v>0.9809650222804757</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1254</v>
@@ -4136,19 +4136,19 @@
         <v>864483</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>850862</v>
+        <v>852212</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>873656</v>
+        <v>873987</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.949621538364614</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9346584786459937</v>
+        <v>0.9361419146227307</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.959698142661826</v>
+        <v>0.9600612394806275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2175</v>
@@ -4157,19 +4157,19 @@
         <v>1813024</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1792762</v>
+        <v>1795439</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1826757</v>
+        <v>1827433</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9611669878232026</v>
+        <v>0.9611669878232024</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9504249300836451</v>
+        <v>0.9518442457753831</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9684473025961364</v>
+        <v>0.968805582036896</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>127780</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>107154</v>
+        <v>105204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>152808</v>
+        <v>152094</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03670479823752797</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03078013859738308</v>
+        <v>0.03021984601739581</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04389405587367691</v>
+        <v>0.043689188267605</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>448</v>
@@ -4282,19 +4282,19 @@
         <v>296218</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>267286</v>
+        <v>270478</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>326487</v>
+        <v>324821</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08011499466242353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07228989740060625</v>
+        <v>0.07315311702098697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08830131647773694</v>
+        <v>0.08785091002290536</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>581</v>
@@ -4303,19 +4303,19 @@
         <v>423998</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>388717</v>
+        <v>384753</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>463586</v>
+        <v>459858</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05906337967480606</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05414862673481163</v>
+        <v>0.05359641966871268</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06457796262563072</v>
+        <v>0.0640587000883279</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3353504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3328476</v>
+        <v>3329190</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3374130</v>
+        <v>3376080</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9632952017624721</v>
+        <v>0.963295201762472</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9561059441263238</v>
+        <v>0.9563108117323951</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9692198614026171</v>
+        <v>0.9697801539826043</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4860</v>
@@ -4353,19 +4353,19 @@
         <v>3401198</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3370929</v>
+        <v>3372595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3430130</v>
+        <v>3426938</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9198850053375763</v>
+        <v>0.9198850053375764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.911698683522263</v>
+        <v>0.9121490899770945</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9277101025993939</v>
+        <v>0.926846882979013</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8068</v>
@@ -4374,19 +4374,19 @@
         <v>6754703</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6715115</v>
+        <v>6718843</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6789984</v>
+        <v>6793948</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.940936620325194</v>
+        <v>0.9409366203251939</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9354220373743692</v>
+        <v>0.9359412999116721</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9458513732651886</v>
+        <v>0.9464035803312871</v>
       </c>
     </row>
     <row r="18">
